--- a/Ontologia_Esquadrias.xlsx
+++ b/Ontologia_Esquadrias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2BDA66-25A7-4262-BCF4-6685502C402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F70C06-EA94-4C86-B73B-56FC3B4FD38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="558">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>HasKey</t>
+  </si>
+  <si>
+    <t>Disjuntas 11</t>
+  </si>
+  <si>
+    <t>Disjuntas 12</t>
   </si>
 </sst>
 </file>
@@ -2041,6 +2047,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2067,27 +2094,6 @@
         <i val="0"/>
         <strike val="0"/>
         <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -17136,22 +17142,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05745E6-4BCE-4DB3-BA79-65D069C44F12}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="2" customWidth="1"/>
     <col min="2" max="11" width="9.109375" style="2" customWidth="1"/>
-    <col min="12" max="214" width="2.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="2" customWidth="1"/>
+    <col min="14" max="214" width="2.33203125" style="2" customWidth="1"/>
     <col min="215" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27">
         <v>1</v>
       </c>
@@ -17185,8 +17193,14 @@
       <c r="K1" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <v>2</v>
       </c>
@@ -17220,32 +17234,38 @@
       <c r="K2" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16"/>
     </row>
     <row r="17" spans="8:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17358,7 +17378,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A8:G52 A53:K1048576 A1:K1 I3:K52 A3:H7 A2:C2 L1:XFD1048576">
+  <conditionalFormatting sqref="A8:G52 A53:K1048576 I3:K52 A3:H7 A2:C2 L3:XFD1048576 N1:XFD2 A1:M1">
     <cfRule type="containsText" dxfId="346" priority="88" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -17386,7 +17406,7 @@
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="K2:M2">
     <cfRule type="containsText" dxfId="338" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",K2)))</formula>
     </cfRule>
@@ -22231,7 +22251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC16DFF-EFED-4A4F-AD49-C719B19693F4}">
   <dimension ref="A1:F553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -24029,43 +24049,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 G5:XFD5 D2:F5 A2:C6">
-    <cfRule type="containsText" dxfId="3" priority="228" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="10" priority="228" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="229" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="9" priority="229" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="230" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="8" priority="230" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="231" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="cellIs" dxfId="10" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="226" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="227" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="5" priority="227" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="containsText" dxfId="8" priority="225" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="4" priority="225" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6">
-    <cfRule type="containsText" dxfId="7" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="3" priority="69" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="2" priority="70" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
